--- a/data/pca/factorExposure/factorExposure_2008-12-12.xlsx
+++ b/data/pca/factorExposure/factorExposure_2008-12-12.xlsx
@@ -14,12 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +698,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.01876105952467632</v>
+        <v>-0.0173800899341975</v>
       </c>
       <c r="C2">
-        <v>0.01428694738560102</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>-0.01593353422699002</v>
+      </c>
+      <c r="D2">
+        <v>-0.02092560320679138</v>
+      </c>
+      <c r="E2">
+        <v>-0.0190743703457679</v>
+      </c>
+      <c r="F2">
+        <v>0.009257406512749259</v>
+      </c>
+      <c r="G2">
+        <v>0.008116961295348765</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,175 +757,367 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.080431289827555</v>
+        <v>-0.08374425466588849</v>
       </c>
       <c r="C4">
-        <v>0.08654364534597174</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>-0.08922274547384577</v>
+      </c>
+      <c r="D4">
+        <v>0.05101482375524688</v>
+      </c>
+      <c r="E4">
+        <v>-0.03748837657139851</v>
+      </c>
+      <c r="F4">
+        <v>-0.002569524391811642</v>
+      </c>
+      <c r="G4">
+        <v>0.04490870015961151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>-0.004995272696769741</v>
       </c>
       <c r="C5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>-0.0008742460591523451</v>
+      </c>
+      <c r="D5">
+        <v>-0.0001060249121178169</v>
+      </c>
+      <c r="E5">
+        <v>0.004661526539363242</v>
+      </c>
+      <c r="F5">
+        <v>-0.003924101603829921</v>
+      </c>
+      <c r="G5">
+        <v>-0.00387285766456883</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.1685723660644984</v>
+        <v>-0.1695097477310372</v>
       </c>
       <c r="C6">
-        <v>-0.0162684253901134</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>0.006872830365313742</v>
+      </c>
+      <c r="D6">
+        <v>0.06379493752393779</v>
+      </c>
+      <c r="E6">
+        <v>0.05807613769146917</v>
+      </c>
+      <c r="F6">
+        <v>-0.05712884309745295</v>
+      </c>
+      <c r="G6">
+        <v>0.03112063737464077</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.05003993066479054</v>
+        <v>-0.05251582097460466</v>
       </c>
       <c r="C7">
-        <v>0.06178522490587619</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>-0.06302777550697686</v>
+      </c>
+      <c r="D7">
+        <v>0.05448332814175062</v>
+      </c>
+      <c r="E7">
+        <v>-0.06922279315252397</v>
+      </c>
+      <c r="F7">
+        <v>0.04558967483564117</v>
+      </c>
+      <c r="G7">
+        <v>0.05981747698873464</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.04673012744673968</v>
+        <v>-0.04563252739409803</v>
       </c>
       <c r="C8">
-        <v>0.06139650761004029</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>-0.05900015562000377</v>
+      </c>
+      <c r="D8">
+        <v>-0.02422492576953483</v>
+      </c>
+      <c r="E8">
+        <v>-0.03485276045854971</v>
+      </c>
+      <c r="F8">
+        <v>0.01604344411764897</v>
+      </c>
+      <c r="G8">
+        <v>-0.01733389010465433</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.05660589815489955</v>
+        <v>-0.06186036346551181</v>
       </c>
       <c r="C9">
-        <v>0.09610885110648243</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>-0.09643597949267289</v>
+      </c>
+      <c r="D9">
+        <v>0.08607292841619016</v>
+      </c>
+      <c r="E9">
+        <v>-0.05137905657420567</v>
+      </c>
+      <c r="F9">
+        <v>-0.01146792349098027</v>
+      </c>
+      <c r="G9">
+        <v>0.02177415382818486</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.1201024343127803</v>
+        <v>-0.1044332905046984</v>
       </c>
       <c r="C10">
-        <v>-0.1544588882788938</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>0.1383447495606691</v>
+      </c>
+      <c r="D10">
+        <v>-0.0773541862871988</v>
+      </c>
+      <c r="E10">
+        <v>-0.05430855191300776</v>
+      </c>
+      <c r="F10">
+        <v>0.02849207147372184</v>
+      </c>
+      <c r="G10">
+        <v>-0.04055973262258451</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.07910029444475826</v>
+        <v>-0.07639259696105803</v>
       </c>
       <c r="C11">
-        <v>0.1384304129238959</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>-0.137468239665266</v>
+      </c>
+      <c r="D11">
+        <v>0.04855603175375822</v>
+      </c>
+      <c r="E11">
+        <v>-0.06440128391974077</v>
+      </c>
+      <c r="F11">
+        <v>-0.005855117598566025</v>
+      </c>
+      <c r="G11">
+        <v>0.001698129963818993</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.07992882300020174</v>
+        <v>-0.07588641284071697</v>
       </c>
       <c r="C12">
-        <v>0.1663269317958295</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>-0.1631914382581421</v>
+      </c>
+      <c r="D12">
+        <v>0.04618035282158119</v>
+      </c>
+      <c r="E12">
+        <v>-0.06705842042141215</v>
+      </c>
+      <c r="F12">
+        <v>0.02997788005880241</v>
+      </c>
+      <c r="G12">
+        <v>0.01141775927382826</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.03964369836836974</v>
+        <v>-0.04181231215285087</v>
       </c>
       <c r="C13">
-        <v>0.07376862124210302</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>-0.07803132761361811</v>
+      </c>
+      <c r="D13">
+        <v>0.03221235917130785</v>
+      </c>
+      <c r="E13">
+        <v>-0.07620937716944377</v>
+      </c>
+      <c r="F13">
+        <v>0.03717963537353049</v>
+      </c>
+      <c r="G13">
+        <v>0.02287554217977523</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.02028645981026054</v>
+        <v>-0.02277262309062476</v>
       </c>
       <c r="C14">
-        <v>0.04989223633247536</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>-0.05227443631911231</v>
+      </c>
+      <c r="D14">
+        <v>0.04602499468498251</v>
+      </c>
+      <c r="E14">
+        <v>-0.06786339078083632</v>
+      </c>
+      <c r="F14">
+        <v>-0.002985663691081385</v>
+      </c>
+      <c r="G14">
+        <v>-0.01199854037471742</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0.03259010840134854</v>
+        <v>-0.03254037746447089</v>
       </c>
       <c r="C15">
-        <v>0.06689231531633839</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>-0.06491448130246689</v>
+      </c>
+      <c r="D15">
+        <v>0.04579782353592315</v>
+      </c>
+      <c r="E15">
+        <v>-0.01540026833349905</v>
+      </c>
+      <c r="F15">
+        <v>0.0297220744691218</v>
+      </c>
+      <c r="G15">
+        <v>0.009251908055105573</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.05776694795641459</v>
+        <v>-0.05603410351191931</v>
       </c>
       <c r="C16">
-        <v>0.1588012177461293</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>-0.1579556314727956</v>
+      </c>
+      <c r="D16">
+        <v>0.04501288246004757</v>
+      </c>
+      <c r="E16">
+        <v>-0.0509484460368671</v>
+      </c>
+      <c r="F16">
+        <v>-0.01830989111546493</v>
+      </c>
+      <c r="G16">
+        <v>-0.005908974780519936</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.008356857550314841</v>
       </c>
       <c r="C17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>-0.004257789295782391</v>
+      </c>
+      <c r="D17">
+        <v>-0.003467140951480588</v>
+      </c>
+      <c r="E17">
+        <v>0.01009135569765776</v>
+      </c>
+      <c r="F17">
+        <v>0.01383305714429622</v>
+      </c>
+      <c r="G17">
+        <v>-0.01495482715489583</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B18">
-        <v>0.04580880050734779</v>
+        <v>-0.05628402948699352</v>
       </c>
       <c r="C18">
-        <v>0.05505499802894089</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>-0.04775036629323307</v>
+      </c>
+      <c r="D18">
+        <v>-0.001291016928874477</v>
+      </c>
+      <c r="E18">
+        <v>0.06105567924040813</v>
+      </c>
+      <c r="F18">
+        <v>-0.02522692123218852</v>
+      </c>
+      <c r="G18">
+        <v>0.001380110980295709</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1125,183 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.05850852754309878</v>
+        <v>-0.05735816122785375</v>
       </c>
       <c r="C20">
-        <v>0.1091062773149702</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>-0.1061155638671629</v>
+      </c>
+      <c r="D20">
+        <v>0.0644459541826507</v>
+      </c>
+      <c r="E20">
+        <v>-0.05160501042275652</v>
+      </c>
+      <c r="F20">
+        <v>0.02323871334953623</v>
+      </c>
+      <c r="G20">
+        <v>0.005033250035713945</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.04289268867519083</v>
+        <v>-0.04487657044333918</v>
       </c>
       <c r="C21">
-        <v>0.06895538166122235</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>-0.06530891695379437</v>
+      </c>
+      <c r="D21">
+        <v>0.02806559393983181</v>
+      </c>
+      <c r="E21">
+        <v>-0.05299331850887373</v>
+      </c>
+      <c r="F21">
+        <v>-0.006812500839954239</v>
+      </c>
+      <c r="G21">
+        <v>0.03108268554779558</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0.04480270857889954</v>
+        <v>-0.04515856979998389</v>
       </c>
       <c r="C22">
-        <v>0.03695059330384177</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>-0.03891770215333613</v>
+      </c>
+      <c r="D22">
+        <v>-0.1131818558019736</v>
+      </c>
+      <c r="E22">
+        <v>0.05544761919348456</v>
+      </c>
+      <c r="F22">
+        <v>-0.1501252359740659</v>
+      </c>
+      <c r="G22">
+        <v>-0.07258905210323952</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0.04481278680441116</v>
+        <v>-0.04516734145707675</v>
       </c>
       <c r="C23">
-        <v>0.03694325185830848</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>-0.03891131969356286</v>
+      </c>
+      <c r="D23">
+        <v>-0.1132166304502287</v>
+      </c>
+      <c r="E23">
+        <v>0.05544601786160038</v>
+      </c>
+      <c r="F23">
+        <v>-0.1501520453886784</v>
+      </c>
+      <c r="G23">
+        <v>-0.0726579929395606</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.06562985670740296</v>
+        <v>-0.06413195844278238</v>
       </c>
       <c r="C24">
-        <v>0.143501434643333</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>-0.1401350243199074</v>
+      </c>
+      <c r="D24">
+        <v>0.04912841714495927</v>
+      </c>
+      <c r="E24">
+        <v>-0.06029884317960523</v>
+      </c>
+      <c r="F24">
+        <v>0.00434179145057647</v>
+      </c>
+      <c r="G24">
+        <v>0.004358684042142062</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.07298517355869176</v>
+        <v>-0.07026731817011245</v>
       </c>
       <c r="C25">
-        <v>0.1300119399764164</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>-0.1275722602600566</v>
+      </c>
+      <c r="D25">
+        <v>0.04944419543272768</v>
+      </c>
+      <c r="E25">
+        <v>-0.08295166994187363</v>
+      </c>
+      <c r="F25">
+        <v>0.02770606673948371</v>
+      </c>
+      <c r="G25">
+        <v>0.03025671174100388</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.05704666894679653</v>
+        <v>-0.06086836009560496</v>
       </c>
       <c r="C26">
-        <v>0.07390592991624349</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>-0.07803456791615408</v>
+      </c>
+      <c r="D26">
+        <v>0.02311148058991757</v>
+      </c>
+      <c r="E26">
+        <v>-0.07300890955818912</v>
+      </c>
+      <c r="F26">
+        <v>0.02815500282693077</v>
+      </c>
+      <c r="G26">
+        <v>0.005942615149142807</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,120 +1309,252 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.1723750808268901</v>
+        <v>-0.176817693157718</v>
       </c>
       <c r="C28">
-        <v>-0.2241246208158572</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>0.2266914987862889</v>
+      </c>
+      <c r="D28">
+        <v>0.01513114451717139</v>
+      </c>
+      <c r="E28">
+        <v>-0.1500747203944781</v>
+      </c>
+      <c r="F28">
+        <v>0.05994973387749994</v>
+      </c>
+      <c r="G28">
+        <v>-0.01892572026485312</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.02584297291307064</v>
+        <v>-0.02718496032284981</v>
       </c>
       <c r="C29">
-        <v>0.05583741327717739</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>-0.05567727696940331</v>
+      </c>
+      <c r="D29">
+        <v>0.01192764066951244</v>
+      </c>
+      <c r="E29">
+        <v>-0.07344400895075572</v>
+      </c>
+      <c r="F29">
+        <v>-0.005598988556258858</v>
+      </c>
+      <c r="G29">
+        <v>-0.01196675486682689</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.02995999897357432</v>
+        <v>-0.03350740153710996</v>
       </c>
       <c r="C30">
-        <v>0.07244461024572661</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>-0.07683827015445681</v>
+      </c>
+      <c r="D30">
+        <v>0.1272506136650197</v>
+      </c>
+      <c r="E30">
+        <v>-0.06536755012644442</v>
+      </c>
+      <c r="F30">
+        <v>0.07046438407085792</v>
+      </c>
+      <c r="G30">
+        <v>0.01955682516415776</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.05432206653978022</v>
+        <v>-0.05316823853674945</v>
       </c>
       <c r="C31">
-        <v>0.03648484286268623</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>-0.03884231926490572</v>
+      </c>
+      <c r="D31">
+        <v>-0.004013286999124514</v>
+      </c>
+      <c r="E31">
+        <v>-0.01653287134403257</v>
+      </c>
+      <c r="F31">
+        <v>-0.05199367155018037</v>
+      </c>
+      <c r="G31">
+        <v>0.01030736845789615</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.04410532745705572</v>
+        <v>-0.04745520834086464</v>
       </c>
       <c r="C32">
-        <v>0.05905227600289705</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>-0.05663947789250542</v>
+      </c>
+      <c r="D32">
+        <v>0.01304694504514432</v>
+      </c>
+      <c r="E32">
+        <v>-0.001320735481139717</v>
+      </c>
+      <c r="F32">
+        <v>0.04379499519272067</v>
+      </c>
+      <c r="G32">
+        <v>0.002892842047449662</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.07846004093966794</v>
+        <v>-0.08276495892277069</v>
       </c>
       <c r="C33">
-        <v>0.1143354311054849</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>-0.1227674730272291</v>
+      </c>
+      <c r="D33">
+        <v>0.05672451903454008</v>
+      </c>
+      <c r="E33">
+        <v>-0.05611954937302209</v>
+      </c>
+      <c r="F33">
+        <v>0.0006051845145174432</v>
+      </c>
+      <c r="G33">
+        <v>-0.01519105859244433</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.05177795014450626</v>
+        <v>-0.05107077626427107</v>
       </c>
       <c r="C34">
-        <v>0.1325097053326282</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>-0.1315033310769241</v>
+      </c>
+      <c r="D34">
+        <v>0.09352295184100019</v>
+      </c>
+      <c r="E34">
+        <v>-0.04510202335992896</v>
+      </c>
+      <c r="F34">
+        <v>-0.01780554060296908</v>
+      </c>
+      <c r="G34">
+        <v>-0.03111076254270999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B35">
-        <v>0.02847069365848839</v>
+        <v>-0.03053019971367106</v>
       </c>
       <c r="C35">
-        <v>0.0171620527818864</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>-0.0202060536826732</v>
+      </c>
+      <c r="D35">
+        <v>0.01624226476812565</v>
+      </c>
+      <c r="E35">
+        <v>-0.01900355529352289</v>
+      </c>
+      <c r="F35">
+        <v>0.009222673854737077</v>
+      </c>
+      <c r="G35">
+        <v>-0.02315134466799471</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.02782076828172723</v>
+        <v>-0.03008750259567657</v>
       </c>
       <c r="C36">
-        <v>0.05758233206331607</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>-0.05568726661941114</v>
+      </c>
+      <c r="D36">
+        <v>0.07208925331268537</v>
+      </c>
+      <c r="E36">
+        <v>0.008111673521884515</v>
+      </c>
+      <c r="F36">
+        <v>-0.02338058581824195</v>
+      </c>
+      <c r="G36">
+        <v>-0.06113964561515809</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B37">
-        <v>0.0004172269889817739</v>
+        <v>-0.004649809488103557</v>
       </c>
       <c r="C37">
-        <v>-0.000444059796262902</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>-0.007090929391446565</v>
+      </c>
+      <c r="D37">
+        <v>0.0004226419550815158</v>
+      </c>
+      <c r="E37">
+        <v>-0.01261576465704327</v>
+      </c>
+      <c r="F37">
+        <v>0.001028136328903865</v>
+      </c>
+      <c r="G37">
+        <v>0.004829892266068181</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1106,43 +1562,91 @@
       <c r="C38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.07865221481777569</v>
+        <v>-0.07387668402826771</v>
       </c>
       <c r="C39">
-        <v>0.1578142798543506</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>-0.1511901059012209</v>
+      </c>
+      <c r="D39">
+        <v>0.007273218725934121</v>
+      </c>
+      <c r="E39">
+        <v>-0.1188854744136953</v>
+      </c>
+      <c r="F39">
+        <v>-0.002889702477516337</v>
+      </c>
+      <c r="G39">
+        <v>0.02377093363607233</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.0506005816594681</v>
+        <v>-0.05350165996600518</v>
       </c>
       <c r="C40">
-        <v>0.07550750329305228</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>-0.08035738116144182</v>
+      </c>
+      <c r="D40">
+        <v>0.01542635961097939</v>
+      </c>
+      <c r="E40">
+        <v>-0.0369535526582242</v>
+      </c>
+      <c r="F40">
+        <v>0.05342799516029888</v>
+      </c>
+      <c r="G40">
+        <v>-0.03418371665514856</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.03043043999899536</v>
+        <v>-0.03009309526706029</v>
       </c>
       <c r="C41">
-        <v>0.0232126348696299</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>-0.02533285032543552</v>
+      </c>
+      <c r="D41">
+        <v>-0.007417939092399148</v>
+      </c>
+      <c r="E41">
+        <v>0.0123767422855937</v>
+      </c>
+      <c r="F41">
+        <v>0.009768608299120733</v>
+      </c>
+      <c r="G41">
+        <v>-0.006609645117521424</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,98 +1654,206 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.04458825430108507</v>
+        <v>-0.04240912606413771</v>
       </c>
       <c r="C43">
-        <v>0.04055023506760122</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>-0.03878912333671616</v>
+      </c>
+      <c r="D43">
+        <v>-0.01584884757648279</v>
+      </c>
+      <c r="E43">
+        <v>-0.01809083993504886</v>
+      </c>
+      <c r="F43">
+        <v>-0.03875591734995557</v>
+      </c>
+      <c r="G43">
+        <v>-0.0202112354240832</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.0551636716416866</v>
+        <v>-0.0592389186950337</v>
       </c>
       <c r="C44">
-        <v>0.09706379679346941</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>-0.1002148384038664</v>
+      </c>
+      <c r="D44">
+        <v>0.3201415253169104</v>
+      </c>
+      <c r="E44">
+        <v>-0.06871620028213173</v>
+      </c>
+      <c r="F44">
+        <v>-0.001739880492552326</v>
+      </c>
+      <c r="G44">
+        <v>-0.1082955203380849</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>-0.0006966968916223873</v>
       </c>
       <c r="C45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+        <v>-0.001085956161564364</v>
+      </c>
+      <c r="D45">
+        <v>-0.001139519942174739</v>
+      </c>
+      <c r="E45">
+        <v>-0.001777188073530694</v>
+      </c>
+      <c r="F45">
+        <v>-0.002511593917220869</v>
+      </c>
+      <c r="G45">
+        <v>0.007167866974993777</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.0285912020417599</v>
+        <v>-0.02980211347821101</v>
       </c>
       <c r="C46">
-        <v>0.04743567343896617</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>-0.04464664236991366</v>
+      </c>
+      <c r="D46">
+        <v>-0.009168475819850832</v>
+      </c>
+      <c r="E46">
+        <v>-0.06480832030413652</v>
+      </c>
+      <c r="F46">
+        <v>-0.02866243076184109</v>
+      </c>
+      <c r="G46">
+        <v>0.00198809379394334</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.05596503215869612</v>
+        <v>-0.05336397982770105</v>
       </c>
       <c r="C47">
-        <v>0.04713811928609245</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>-0.04608496991032979</v>
+      </c>
+      <c r="D47">
+        <v>-0.04716646174665699</v>
+      </c>
+      <c r="E47">
+        <v>0.0139138787885444</v>
+      </c>
+      <c r="F47">
+        <v>-0.08247462902260853</v>
+      </c>
+      <c r="G47">
+        <v>-0.007103451073441035</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.04869389497916708</v>
+        <v>-0.05011404200097844</v>
       </c>
       <c r="C48">
-        <v>0.06866702390215912</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>-0.06907567485738093</v>
+      </c>
+      <c r="D48">
+        <v>0.03991372120714015</v>
+      </c>
+      <c r="E48">
+        <v>-0.05568646242568475</v>
+      </c>
+      <c r="F48">
+        <v>-0.0008603190214556198</v>
+      </c>
+      <c r="G48">
+        <v>0.04714187439614289</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B49">
-        <v>0.1840744951227986</v>
+        <v>-0.1913146158772191</v>
       </c>
       <c r="C49">
-        <v>-0.03057618558386105</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>0.02710510564831354</v>
+      </c>
+      <c r="D49">
+        <v>0.02897515083933486</v>
+      </c>
+      <c r="E49">
+        <v>0.01505573657165684</v>
+      </c>
+      <c r="F49">
+        <v>0.1280139211345878</v>
+      </c>
+      <c r="G49">
+        <v>0.03046013186556061</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.05387317821721609</v>
+        <v>-0.0533917216869894</v>
       </c>
       <c r="C50">
-        <v>0.0368065421206598</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>-0.03980895064667284</v>
+      </c>
+      <c r="D50">
+        <v>0.01027119769977525</v>
+      </c>
+      <c r="E50">
+        <v>-0.008843721500683792</v>
+      </c>
+      <c r="F50">
+        <v>-0.04511382809499107</v>
+      </c>
+      <c r="G50">
+        <v>0.02109697984514411</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1249,65 +1861,137 @@
       <c r="C51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B52">
-        <v>0.1399417089272301</v>
+        <v>-0.1351022522767521</v>
       </c>
       <c r="C52">
-        <v>0.03521763595087406</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+        <v>-0.03383732787776378</v>
+      </c>
+      <c r="D52">
+        <v>0.02696695516957767</v>
+      </c>
+      <c r="E52">
+        <v>0.08859664640928359</v>
+      </c>
+      <c r="F52">
+        <v>-0.1230327372654283</v>
+      </c>
+      <c r="G52">
+        <v>0.02245919860216824</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.1668964835977958</v>
+        <v>-0.1608507120392174</v>
       </c>
       <c r="C53">
-        <v>-0.01096268033254983</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>0.009478775214152892</v>
+      </c>
+      <c r="D53">
+        <v>0.04223948927811667</v>
+      </c>
+      <c r="E53">
+        <v>0.1271839075486158</v>
+      </c>
+      <c r="F53">
+        <v>-0.1612876042585788</v>
+      </c>
+      <c r="G53">
+        <v>0.05727891332586578</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.01331797956679204</v>
+        <v>-0.01422221361359199</v>
       </c>
       <c r="C54">
-        <v>0.04103788913691201</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>-0.04224673579276014</v>
+      </c>
+      <c r="D54">
+        <v>0.01577680040793372</v>
+      </c>
+      <c r="E54">
+        <v>-0.03930658181439909</v>
+      </c>
+      <c r="F54">
+        <v>0.001512606357721818</v>
+      </c>
+      <c r="G54">
+        <v>0.004364243291224625</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.1212265338120128</v>
+        <v>-0.1194132631525845</v>
       </c>
       <c r="C55">
-        <v>0.01666699411443856</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>-0.0177053039264</v>
+      </c>
+      <c r="D55">
+        <v>0.03369043393805456</v>
+      </c>
+      <c r="E55">
+        <v>0.05858379053244486</v>
+      </c>
+      <c r="F55">
+        <v>-0.1871313617942713</v>
+      </c>
+      <c r="G55">
+        <v>0.05310501096126137</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.1802493407964832</v>
+        <v>-0.1755490982880824</v>
       </c>
       <c r="C56">
-        <v>-0.008592217264690725</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>0.01015377737849156</v>
+      </c>
+      <c r="D56">
+        <v>0.0002959267486186186</v>
+      </c>
+      <c r="E56">
+        <v>0.1573222097576748</v>
+      </c>
+      <c r="F56">
+        <v>-0.1686579008593083</v>
+      </c>
+      <c r="G56">
+        <v>0.0822414530004317</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,208 +1999,436 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.04107662115678693</v>
+        <v>-0.04126044763556933</v>
       </c>
       <c r="C58">
-        <v>0.09682599450083375</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>-0.1074045169497089</v>
+      </c>
+      <c r="D58">
+        <v>-0.01219457468529136</v>
+      </c>
+      <c r="E58">
+        <v>-0.04353895775103796</v>
+      </c>
+      <c r="F58">
+        <v>-0.004290438181717145</v>
+      </c>
+      <c r="G58">
+        <v>4.486975456889875e-06</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.1809210828354256</v>
+        <v>-0.1875325392286798</v>
       </c>
       <c r="C59">
-        <v>-0.1584237579540851</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>0.1656976634954777</v>
+      </c>
+      <c r="D59">
+        <v>-0.09786378651732147</v>
+      </c>
+      <c r="E59">
+        <v>-0.08293018421558103</v>
+      </c>
+      <c r="F59">
+        <v>0.03257249580504323</v>
+      </c>
+      <c r="G59">
+        <v>-0.00385256193228817</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.2067640637422815</v>
+        <v>-0.2053733157975758</v>
       </c>
       <c r="C60">
-        <v>0.001714773200800077</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>-0.004991200080130804</v>
+      </c>
+      <c r="D60">
+        <v>-0.1108725663459701</v>
+      </c>
+      <c r="E60">
+        <v>0.1372586450461107</v>
+      </c>
+      <c r="F60">
+        <v>0.06835781505039291</v>
+      </c>
+      <c r="G60">
+        <v>0.08295722819631096</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.06122668933395888</v>
+        <v>-0.05929408068308407</v>
       </c>
       <c r="C61">
-        <v>0.1333642396562583</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>-0.1302296424803652</v>
+      </c>
+      <c r="D61">
+        <v>0.01344576658007612</v>
+      </c>
+      <c r="E61">
+        <v>-0.07471073806253328</v>
+      </c>
+      <c r="F61">
+        <v>0.0295541263108764</v>
+      </c>
+      <c r="G61">
+        <v>0.01318361165178688</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B62">
-        <v>0.1698857190527049</v>
+        <v>-0.1661875462376711</v>
       </c>
       <c r="C62">
-        <v>-0.00483181914481364</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>0.005539159679049108</v>
+      </c>
+      <c r="D62">
+        <v>0.002359903864486807</v>
+      </c>
+      <c r="E62">
+        <v>0.1348194164477621</v>
+      </c>
+      <c r="F62">
+        <v>-0.1572483785505738</v>
+      </c>
+      <c r="G62">
+        <v>0.06012221392080351</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.04178848354620642</v>
+        <v>-0.04427754158379844</v>
       </c>
       <c r="C63">
-        <v>0.08013938747568417</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>-0.08347358483368218</v>
+      </c>
+      <c r="D63">
+        <v>0.02118141959338131</v>
+      </c>
+      <c r="E63">
+        <v>-0.03995430506924855</v>
+      </c>
+      <c r="F63">
+        <v>0.01017602698232723</v>
+      </c>
+      <c r="G63">
+        <v>-0.02972735393549634</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.1138068587641943</v>
+        <v>-0.1111505315992757</v>
       </c>
       <c r="C64">
-        <v>0.06290576276670018</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>-0.06513170567659432</v>
+      </c>
+      <c r="D64">
+        <v>0.01832956876371474</v>
+      </c>
+      <c r="E64">
+        <v>0.05298128318540173</v>
+      </c>
+      <c r="F64">
+        <v>0.01368665884882937</v>
+      </c>
+      <c r="G64">
+        <v>0.02809785928722988</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.1594028966093945</v>
+        <v>-0.1622599839721101</v>
       </c>
       <c r="C65">
-        <v>-0.05413872536817556</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>0.04311272689299559</v>
+      </c>
+      <c r="D65">
+        <v>0.06447505759945311</v>
+      </c>
+      <c r="E65">
+        <v>0.001005650120727106</v>
+      </c>
+      <c r="F65">
+        <v>-0.05356693900347347</v>
+      </c>
+      <c r="G65">
+        <v>0.02853723901387308</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.09672738378044921</v>
+        <v>-0.09228462532749984</v>
       </c>
       <c r="C66">
-        <v>0.1311821636189198</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>-0.1292974061439781</v>
+      </c>
+      <c r="D66">
+        <v>0.02759831927281622</v>
+      </c>
+      <c r="E66">
+        <v>-0.102046677474029</v>
+      </c>
+      <c r="F66">
+        <v>0.01855454941916862</v>
+      </c>
+      <c r="G66">
+        <v>-0.01024511512981384</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.05128123835369672</v>
+        <v>-0.04443524562593932</v>
       </c>
       <c r="C67">
-        <v>0.07887377181505349</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>-0.07232734173569529</v>
+      </c>
+      <c r="D67">
+        <v>-0.07772719964586818</v>
+      </c>
+      <c r="E67">
+        <v>0.03062305393096637</v>
+      </c>
+      <c r="F67">
+        <v>-0.05241497134132307</v>
+      </c>
+      <c r="G67">
+        <v>-0.04836337606831686</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.1469397851781864</v>
+        <v>-0.1472540842414655</v>
       </c>
       <c r="C68">
-        <v>-0.2528877660457902</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>0.2480118922015436</v>
+      </c>
+      <c r="D68">
+        <v>0.03542672325799331</v>
+      </c>
+      <c r="E68">
+        <v>-0.1517908609015611</v>
+      </c>
+      <c r="F68">
+        <v>0.05983380340587454</v>
+      </c>
+      <c r="G68">
+        <v>0.05153652806803413</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.03897937026954033</v>
+        <v>-0.03696409231659312</v>
       </c>
       <c r="C69">
-        <v>0.01743250938955173</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>-0.02044417016445522</v>
+      </c>
+      <c r="D69">
+        <v>-0.02154501761289168</v>
+      </c>
+      <c r="E69">
+        <v>0.0573089671018298</v>
+      </c>
+      <c r="F69">
+        <v>-0.04967543416473394</v>
+      </c>
+      <c r="G69">
+        <v>-0.04319029366873474</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B70">
-        <v>0.07634040867112259</v>
+        <v>-0.07376872018398961</v>
       </c>
       <c r="C70">
-        <v>0.08716858604072091</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>-0.0895762554536499</v>
+      </c>
+      <c r="D70">
+        <v>-0.6561080913818599</v>
+      </c>
+      <c r="E70">
+        <v>0.1623294657557971</v>
+      </c>
+      <c r="F70">
+        <v>0.2143739077915599</v>
+      </c>
+      <c r="G70">
+        <v>0.4322648006991671</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.1689501797330224</v>
+        <v>-0.1712326854259187</v>
       </c>
       <c r="C71">
-        <v>-0.2546216459718749</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>0.2518842457958095</v>
+      </c>
+      <c r="D71">
+        <v>0.02492621510736149</v>
+      </c>
+      <c r="E71">
+        <v>-0.1580076224715704</v>
+      </c>
+      <c r="F71">
+        <v>0.07248833564890295</v>
+      </c>
+      <c r="G71">
+        <v>0.04451826497861332</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.1432650037066063</v>
+        <v>-0.1483178320252417</v>
       </c>
       <c r="C72">
-        <v>0.009290430474106839</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>-0.008105341405089336</v>
+      </c>
+      <c r="D72">
+        <v>0.03323005078800738</v>
+      </c>
+      <c r="E72">
+        <v>0.04383858439546037</v>
+      </c>
+      <c r="F72">
+        <v>-0.1148830656868799</v>
+      </c>
+      <c r="G72">
+        <v>-0.03607414472060962</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.1887859377524482</v>
+        <v>-0.1984132697959822</v>
       </c>
       <c r="C73">
-        <v>0.01769156364037796</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>-0.02039597036951777</v>
+      </c>
+      <c r="D73">
+        <v>0.005749050415702925</v>
+      </c>
+      <c r="E73">
+        <v>0.1063597711825749</v>
+      </c>
+      <c r="F73">
+        <v>-0.006120320348305165</v>
+      </c>
+      <c r="G73">
+        <v>-0.03251977487361118</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.08474125614642461</v>
+        <v>-0.08423643510462361</v>
       </c>
       <c r="C74">
-        <v>0.004700377214419362</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>-0.0110355535651729</v>
+      </c>
+      <c r="D74">
+        <v>0.05267668115516959</v>
+      </c>
+      <c r="E74">
+        <v>0.09853193211448741</v>
+      </c>
+      <c r="F74">
+        <v>-0.06313517910826237</v>
+      </c>
+      <c r="G74">
+        <v>0.003695934161904914</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.1210422944637904</v>
+        <v>-0.1134704816553104</v>
       </c>
       <c r="C75">
-        <v>0.02591193052562432</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>-0.02694475145580195</v>
+      </c>
+      <c r="D75">
+        <v>0.003793849462702857</v>
+      </c>
+      <c r="E75">
+        <v>0.09070715956595383</v>
+      </c>
+      <c r="F75">
+        <v>-0.1720744809343381</v>
+      </c>
+      <c r="G75">
+        <v>0.009564714612002026</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1524,285 +2436,597 @@
       <c r="C76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:3">
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.07820387339487396</v>
+        <v>-0.08580364194168952</v>
       </c>
       <c r="C77">
-        <v>0.1221833015872658</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>-0.1282723314906151</v>
+      </c>
+      <c r="D77">
+        <v>0.0408145563702477</v>
+      </c>
+      <c r="E77">
+        <v>-0.09306260397807568</v>
+      </c>
+      <c r="F77">
+        <v>0.05505913489948044</v>
+      </c>
+      <c r="G77">
+        <v>0.1134004025410715</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.07535542842736813</v>
+        <v>-0.0819426438148608</v>
       </c>
       <c r="C78">
-        <v>0.1296362257896911</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>-0.1315406470575038</v>
+      </c>
+      <c r="D78">
+        <v>0.02483495633962549</v>
+      </c>
+      <c r="E78">
+        <v>-0.1009309829053959</v>
+      </c>
+      <c r="F78">
+        <v>-0.06124965368742015</v>
+      </c>
+      <c r="G78">
+        <v>0.01874785684294592</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0.1688643096945294</v>
+        <v>-0.1642965121526379</v>
       </c>
       <c r="C79">
-        <v>0.02032479969661037</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>-0.020047300215185</v>
+      </c>
+      <c r="D79">
+        <v>-0.0009171018444862917</v>
+      </c>
+      <c r="E79">
+        <v>0.07091994045812901</v>
+      </c>
+      <c r="F79">
+        <v>-0.1457279418745096</v>
+      </c>
+      <c r="G79">
+        <v>0.02582236100649771</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.0784936102962191</v>
+        <v>-0.07422643782853934</v>
       </c>
       <c r="C80">
-        <v>0.08224469023057523</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>-0.0780278309640436</v>
+      </c>
+      <c r="D80">
+        <v>0.00865303508300354</v>
+      </c>
+      <c r="E80">
+        <v>-0.05174335883895912</v>
+      </c>
+      <c r="F80">
+        <v>0.07504277752107073</v>
+      </c>
+      <c r="G80">
+        <v>-0.09528190950077757</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.1137504905932017</v>
+        <v>-0.1067172479790745</v>
       </c>
       <c r="C81">
-        <v>-0.008859556457941939</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>0.008093804576359775</v>
+      </c>
+      <c r="D81">
+        <v>-0.0229131299727188</v>
+      </c>
+      <c r="E81">
+        <v>0.1069986622647188</v>
+      </c>
+      <c r="F81">
+        <v>-0.1485563582898503</v>
+      </c>
+      <c r="G81">
+        <v>-0.03824650438497075</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0.1626786385743673</v>
+        <v>-0.1581972073824181</v>
       </c>
       <c r="C82">
-        <v>-0.01526478916137463</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>0.01235262675478021</v>
+      </c>
+      <c r="D82">
+        <v>0.07910953128783858</v>
+      </c>
+      <c r="E82">
+        <v>0.1481119292787235</v>
+      </c>
+      <c r="F82">
+        <v>-0.1252061842257736</v>
+      </c>
+      <c r="G82">
+        <v>0.03041592291920716</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.05398461060695702</v>
+        <v>-0.05071833461950332</v>
       </c>
       <c r="C83">
-        <v>0.06565049821446067</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>-0.05978825450214934</v>
+      </c>
+      <c r="D83">
+        <v>-0.03487377948143361</v>
+      </c>
+      <c r="E83">
+        <v>-0.008337459205981472</v>
+      </c>
+      <c r="F83">
+        <v>0.01970754200149511</v>
+      </c>
+      <c r="G83">
+        <v>0.0034412850426641</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0.04598539585102891</v>
+        <v>-0.04507095009085357</v>
       </c>
       <c r="C84">
-        <v>0.07336336936029755</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>-0.07179644590257957</v>
+      </c>
+      <c r="D84">
+        <v>-0.02376087113136499</v>
+      </c>
+      <c r="E84">
+        <v>0.004288365910547954</v>
+      </c>
+      <c r="F84">
+        <v>-0.0307351384981508</v>
+      </c>
+      <c r="G84">
+        <v>0.02217480152068193</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.1400065072893433</v>
+        <v>-0.1350112790823395</v>
       </c>
       <c r="C85">
-        <v>0.008043128486697061</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>-0.008686734329091018</v>
+      </c>
+      <c r="D85">
+        <v>0.06814997852258071</v>
+      </c>
+      <c r="E85">
+        <v>0.06913509794853472</v>
+      </c>
+      <c r="F85">
+        <v>-0.1502382562303576</v>
+      </c>
+      <c r="G85">
+        <v>0.03140258208373089</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.08513806122857007</v>
+        <v>-0.08528464250284505</v>
       </c>
       <c r="C86">
-        <v>0.1406783630300068</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>-0.1471205405038967</v>
+      </c>
+      <c r="D86">
+        <v>-0.5146458305753745</v>
+      </c>
+      <c r="E86">
+        <v>-0.4785388922767337</v>
+      </c>
+      <c r="F86">
+        <v>-0.2496211692116403</v>
+      </c>
+      <c r="G86">
+        <v>-0.475616965338985</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.08880448050551056</v>
+        <v>-0.08424949942726394</v>
       </c>
       <c r="C87">
-        <v>0.1053785246799309</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>-0.1014501258226113</v>
+      </c>
+      <c r="D87">
+        <v>0.1305156622250982</v>
+      </c>
+      <c r="E87">
+        <v>-0.0943446067110591</v>
+      </c>
+      <c r="F87">
+        <v>0.2097195418271561</v>
+      </c>
+      <c r="G87">
+        <v>0.03001156431879613</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.05939643369372886</v>
+        <v>-0.05887092737959773</v>
       </c>
       <c r="C88">
-        <v>0.06443359493221455</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>-0.06507045849405348</v>
+      </c>
+      <c r="D88">
+        <v>0.0006122978703574016</v>
+      </c>
+      <c r="E88">
+        <v>0.03057388668600149</v>
+      </c>
+      <c r="F88">
+        <v>-0.03085508750198246</v>
+      </c>
+      <c r="G88">
+        <v>0.01831007419611043</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.1537939841832699</v>
+        <v>-0.1529934626128152</v>
       </c>
       <c r="C89">
-        <v>-0.2008080053374985</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>0.2073119672787865</v>
+      </c>
+      <c r="D89">
+        <v>0.03195557332673352</v>
+      </c>
+      <c r="E89">
+        <v>-0.09867527430394316</v>
+      </c>
+      <c r="F89">
+        <v>0.05919406445359122</v>
+      </c>
+      <c r="G89">
+        <v>0.01241543712835745</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.1868322337883911</v>
+        <v>-0.1889206088657125</v>
       </c>
       <c r="C90">
-        <v>-0.2355525635741864</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>0.2356987596945483</v>
+      </c>
+      <c r="D90">
+        <v>0.03176053374971154</v>
+      </c>
+      <c r="E90">
+        <v>-0.1822495020788044</v>
+      </c>
+      <c r="F90">
+        <v>0.1128735780337005</v>
+      </c>
+      <c r="G90">
+        <v>0.02411141511828551</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.1271136859459749</v>
+        <v>-0.1206220351922007</v>
       </c>
       <c r="C91">
-        <v>-0.02199750182048051</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>0.02060529349474961</v>
+      </c>
+      <c r="D91">
+        <v>-0.0397082269816177</v>
+      </c>
+      <c r="E91">
+        <v>0.1311235677323949</v>
+      </c>
+      <c r="F91">
+        <v>-0.1706350143520415</v>
+      </c>
+      <c r="G91">
+        <v>-0.05266396728574613</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.1739389045087911</v>
+        <v>-0.1753423741004946</v>
       </c>
       <c r="C92">
-        <v>-0.2582593230809382</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>0.269359014201538</v>
+      </c>
+      <c r="D92">
+        <v>0.0113135350589547</v>
+      </c>
+      <c r="E92">
+        <v>-0.2108796315284398</v>
+      </c>
+      <c r="F92">
+        <v>0.04503119896413037</v>
+      </c>
+      <c r="G92">
+        <v>0.03200811039424671</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.1796547467393712</v>
+        <v>-0.186501201454116</v>
       </c>
       <c r="C93">
-        <v>-0.2214034302559279</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>0.2232401099296562</v>
+      </c>
+      <c r="D93">
+        <v>-0.009194052482091104</v>
+      </c>
+      <c r="E93">
+        <v>-0.1164336235168243</v>
+      </c>
+      <c r="F93">
+        <v>0.01937762511497905</v>
+      </c>
+      <c r="G93">
+        <v>0.04958256017186272</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.1188594254956302</v>
+        <v>-0.1135764204320687</v>
       </c>
       <c r="C94">
-        <v>0.03410772822967127</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>-0.03418080756873211</v>
+      </c>
+      <c r="D94">
+        <v>0.0004930317722099538</v>
+      </c>
+      <c r="E94">
+        <v>0.08096915652438627</v>
+      </c>
+      <c r="F94">
+        <v>-0.1579306556685619</v>
+      </c>
+      <c r="G94">
+        <v>0.005213619008357846</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.119468074442881</v>
+        <v>-0.1185150201765639</v>
       </c>
       <c r="C95">
-        <v>0.1071172634703331</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>-0.1178812572731603</v>
+      </c>
+      <c r="D95">
+        <v>0.0008761196347356487</v>
+      </c>
+      <c r="E95">
+        <v>-0.08515250473587464</v>
+      </c>
+      <c r="F95">
+        <v>0.01074868492124646</v>
+      </c>
+      <c r="G95">
+        <v>0.006614673696113916</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B96">
-        <v>0.1164062150846004</v>
+        <v>-0.1146153540540059</v>
       </c>
       <c r="C96">
-        <v>0.1227726367992193</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
+        <v>-0.1256569924670115</v>
+      </c>
+      <c r="D96">
+        <v>-0.04648832392639431</v>
+      </c>
+      <c r="E96">
+        <v>0.01355557337612772</v>
+      </c>
+      <c r="F96">
+        <v>0.02017366110672892</v>
+      </c>
+      <c r="G96">
+        <v>0.1383357872149416</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B97">
-        <v>0.2033300887497828</v>
+        <v>-0.2076023499247034</v>
       </c>
       <c r="C97">
-        <v>0.004462276309328316</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>0.002772074464763088</v>
+      </c>
+      <c r="D97">
+        <v>-0.04948849454790542</v>
+      </c>
+      <c r="E97">
+        <v>0.4307455637170007</v>
+      </c>
+      <c r="F97">
+        <v>0.445671291372549</v>
+      </c>
+      <c r="G97">
+        <v>-0.6504071115183669</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.1961666377094899</v>
+        <v>-0.2039255558576352</v>
       </c>
       <c r="C98">
-        <v>0.01974920931869882</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>-0.02117366735216614</v>
+      </c>
+      <c r="D98">
+        <v>-0.07181608740793649</v>
+      </c>
+      <c r="E98">
+        <v>0.06186069074084852</v>
+      </c>
+      <c r="F98">
+        <v>0.1871780766545711</v>
+      </c>
+      <c r="G98">
+        <v>0.0461048366232425</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B99">
-        <v>0.05045906728935635</v>
+        <v>-0.05021617842565881</v>
       </c>
       <c r="C99">
-        <v>0.05791985712852249</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>-0.05790400052036317</v>
+      </c>
+      <c r="D99">
+        <v>0.01978794177385065</v>
+      </c>
+      <c r="E99">
+        <v>-0.02721201943812864</v>
+      </c>
+      <c r="F99">
+        <v>0.01882486294600883</v>
+      </c>
+      <c r="G99">
+        <v>0.004168500429592928</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B100">
-        <v>0.1057809210196704</v>
+        <v>-0.102107238430159</v>
       </c>
       <c r="C100">
-        <v>0.2990405295662796</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
+        <v>-0.2864682947038666</v>
+      </c>
+      <c r="D100">
+        <v>0.003379029387167082</v>
+      </c>
+      <c r="E100">
+        <v>-0.05354763005303475</v>
+      </c>
+      <c r="F100">
+        <v>0.3753888618985082</v>
+      </c>
+      <c r="G100">
+        <v>0.1503737594664397</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.0257763839274571</v>
+        <v>-0.02712510641741929</v>
       </c>
       <c r="C101">
-        <v>0.05518793299342132</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>-0.05499619615346374</v>
+      </c>
+      <c r="D101">
+        <v>0.006546406912635573</v>
+      </c>
+      <c r="E101">
+        <v>-0.06957232128800322</v>
+      </c>
+      <c r="F101">
+        <v>-0.005965586435518237</v>
+      </c>
+      <c r="G101">
+        <v>-0.008918060813640195</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +3034,22 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +3057,39 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
